--- a/scooby.xlsx
+++ b/scooby.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10d5f26f0755ba94/BBB-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_6A69D6BF87D0DD0B43F5C373569B80727BF7ED63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1265AE63-868A-477C-91DB-182F59AB8DA1}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_5F2915B287005059075A2011595ED87656CDBBA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{119F897A-3AD7-4B3B-B547-9FA998280263}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="158">
   <si>
     <t>text</t>
   </si>
@@ -28,151 +28,563 @@
     <t>created_at</t>
   </si>
   <si>
+    <t>original</t>
+  </si>
+  <si>
     <t>en_text</t>
   </si>
   <si>
-    <t>17h 20min prova arthur douglas eslo gustavo jessi lais lina lucas natalia paulo andre pedro scoo</t>
-  </si>
-  <si>
-    <t>17h 20min test arthur douglas eslo gustavo jessi lais lina lucas natalia paulo andre pedro scoo</t>
-  </si>
-  <si>
-    <t>atualizando prova lider semana eli scooby vini gustavo jessi eslo lais dg lollipop uhuul</t>
-  </si>
-  <si>
-    <t>updating week leader test eli scooby vini gustavo jessi eslo lais dg lollipop uhuul</t>
-  </si>
-  <si>
-    <t>scooby vetou eli eliezer puxar lucas domingo paredao barao x eliezer insuportavel saindo bara</t>
-  </si>
-  <si>
-    <t>scooby vetoed eli eliezer pull lucas sunday wall barao x unbearable eliezer leaving bara</t>
+    <t>mudar nome classico sul sera grenal sera agre val gremio x rival gre tal gremio x intercontinetal</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:58:18</t>
+  </si>
+  <si>
+    <t>Agora vai mudar o nome do classico aqui no Sul. Nao sera mais Grenal.
+Sera agre-val! Gremio x Rival
+Ou Gre-tal!! Gremio x Intercontinetal
+#BBB22 
+#Gremio 
+#scooby</t>
+  </si>
+  <si>
+    <t>change classic name sul sera grenal sera agre val gremio x rival gre tal gremio x intercontinental</t>
+  </si>
+  <si>
+    <t>ouvi scooby mencionou parede vermelha prova poderia padroes desenho branco vermelho gira gira acaba perturbando estomago</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:57:57</t>
+  </si>
+  <si>
+    <t>Ouvi q o Scooby mencionou a parede vermelha. A prova nao poderia ter padroes de desenho branco e vermelho q no gira gira acaba perturbando o estomago??? #resistencianaoesorte
+#BBB22 #SpaceCentralBBB
+https://t.co/URwfxL2oGn</t>
+  </si>
+  <si>
+    <t>I heard scooby mention red wall proof could patterns drawing white red cute cute ends up upsetting stomach</t>
+  </si>
+  <si>
+    <t>verdade prefiro lina lucas ganhando linna chance indicar scooby paredao queria ganhasse</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:57:56</t>
+  </si>
+  <si>
+    <t>@naoFabricio Verdade . Prefiro a Lina ou  Lucas ganhando.  A Linna tem uma chance de indicar o Scooby pro paredao. Por isso queria que ela ganhasse #BBB22</t>
+  </si>
+  <si>
+    <t>truth i prefer lina lucas winning linna chance to indicate scooby paredao wanted to win</t>
+  </si>
+  <si>
+    <t>21 horas 37 minutos prova arthur douglas eslo gustavo jessi lais lina lucas natalia paulo andre</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:57:34</t>
+  </si>
+  <si>
+    <t>RT @CentralReaIity:  21 HORAS E 37 MINUTOS DE PROVA! 
+Arthur 
+Douglas
+Eslo 
+Gustavo
+Jessi 
+Lais 
+Lina
+Lucas
+Natalia 
+Paulo Andre...</t>
+  </si>
+  <si>
+    <t>21 hours 37 minutes test arthur douglas eslo gustavo jessi lais lina lucas natalia paulo andre</t>
+  </si>
+  <si>
+    <t>boraaaaa p zinho tropa scooby contigo muleque</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:57:32</t>
+  </si>
+  <si>
+    <t>BORAAAAA P A ZINHO TROPA DO SCOOBY TA CONTIGO MULEQUE!!!! #BBB22</t>
+  </si>
+  <si>
+    <t>boraaaaa p zinho tropa scooby with you kid</t>
+  </si>
+  <si>
+    <t>scooby fato vetado prova</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:56:37</t>
+  </si>
+  <si>
+    <t>Acho q ele vai no Scooby, pelo fato dele ter vetado ele na prova!!! #BBB22 #RedeBBB https://t.co/BKBch3lHlE</t>
+  </si>
+  <si>
+    <t>scooby vetoed fact proof</t>
+  </si>
+  <si>
+    <t>lina naty esquecem pa desistir nunca devem desistir lembrando lideranca vip gustavo jade arthur scooby almoco scooby arthur lais cinema scooby dg jade</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:56:17</t>
+  </si>
+  <si>
+    <t>Lina e Naty esquecem q o PA nao vai desistir e ele nao ta nem ai pra elas por isso q agora mais do q nunca nao devem desistir. Lembrando o q ele fez na lideranca dele... #bbb22 
+Vip: Gustavo, Jade, Arthur e Scooby 
+Almoco: Scooby, Arthur e Lais 
+Cinema: Scooby, DG e Jade</t>
+  </si>
+  <si>
+    <t>lina naty forget to give up should never give up remembering vip leadership gustavo jade arthur scooby lunch scooby arthur lais cinema scooby dg jade</t>
+  </si>
+  <si>
+    <t>eh noia elenco igual scooby achando ruim jessi ficar feliz sendo opcao voto gosto lais</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:56:03</t>
+  </si>
+  <si>
+    <t>@RealitysVip Isso eh noia desse elenco igual o scooby achando ruim a jessi nao ficar feliz por ele sendo q ela era opcao de voto dele #bbb22 eu gosto da Lais por isso kkkkk</t>
+  </si>
+  <si>
+    <t>eh noia cast like scooby thinking it's bad jessi be happy being an option vote like lais</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:55:20</t>
+  </si>
+  <si>
+    <t>vip ficar assim pa arthur dg scooby gustavo naty eli jessi lina lucas lina naty jessi lucas viny lucas eslo jessi naty lina</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:55:19</t>
+  </si>
+  <si>
+    <t>Acho que o VIP vai ficar assim:
+PA,Arthur,DG,Scooby e Gustavo
+Naty,Eli,Jessi,Lina e Lucas
+Lina,Naty,Jessi,Lucas e Viny
+Lucas,Eslo,Jessi,Naty e Lina
+#BBB22</t>
+  </si>
+  <si>
+    <t>vip stay like this pa arthur dg scooby gustavo naty eli jessi lina lucas lina naty jessi lucas viny lucas eslo jessi naty lina</t>
+  </si>
+  <si>
+    <t>pedro scooby sabe p fazendo hipocrita alguns</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:55:06</t>
+  </si>
+  <si>
+    <t>Pedro Scooby  sabe muito  bem p que esta  fazendo   #nao  e  hipocrita  como alguns.  #BBB22 #SpaceCentralBBB
+https://t.co/aZVRiKhwDs</t>
+  </si>
+  <si>
+    <t>pedro scooby knows p making some hypocrites</t>
   </si>
   <si>
     <t>pa trollagem hoje engracada scooby pa trollagem scooby pa narnia</t>
   </si>
   <si>
+    <t>11/03/2022 23:54:18</t>
+  </si>
+  <si>
+    <t>RT @tracklist: PA: "A trollagem de hoje foi muito engracada"
+Scooby: "Que?"
+PA: "A trollagem" 
+Scooby: "Do que?"
+PA: "Tu ta em Narnia?"...</t>
+  </si>
+  <si>
     <t>pa trolling today funny scooby pa trolling scooby pa narnia</t>
   </si>
   <si>
-    <t>pior prova ficar ouvindo jesse cantando scooby desistiu prova</t>
-  </si>
-  <si>
-    <t>worst test listening to jesse singing scooby gave up test</t>
-  </si>
-  <si>
-    <t>surfista pedro scooby parece abalado ainda forma intencional orgulho torcedores colorados prova nesta quinta feira scooby perguntou rival gremio sul tentando refrescar memoria sugeriu intercontinental</t>
-  </si>
-  <si>
-    <t>surfer pedro scooby looks shaken still intentionally proud colorados fans race this thursday scooby asked rival gremio sul trying to refresh memory suggested intercontinental</t>
+    <t>torcendo lucas lider merece tambem esfregar cara queria faze lo desistir derrota arthur igual prova desdenhou pa scooby dizendo concentracao iriam sair rapido ganharam</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:53:07</t>
+  </si>
+  <si>
+    <t>Torcendo pro Lucas ser lider, por ele merece mas tambem pra esfregar na cara do  que queria faze-lo desistir, seria mais uma derrota pro Arthur igual na prova que ele desdenhou do PA e Scooby dizendo que eles nao tinham concentracao e iriam sair rapido e eles ganharam
+#BBB22</t>
+  </si>
+  <si>
+    <t>cheering lucas leader deserves also rubbing guy wanted to make him give up defeat arthur equal proof he disdained pa scooby saying concentration would go out fast won</t>
+  </si>
+  <si>
+    <t>lina natalia lideres pa scooby</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:52:55</t>
+  </si>
+  <si>
+    <t>Lina ou Natalia lideres....vai PA ou Scooby?? #bbb22</t>
+  </si>
+  <si>
+    <t>lina natalia leaders pa scooby</t>
+  </si>
+  <si>
+    <t>scooby varanda pessoal casa</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:52:54</t>
+  </si>
+  <si>
+    <t>RT @PedroScooby: Scooby esta na varanda com o pessoal que esta na casa!  #BBB22 https://t.co/Z0KRgcGJOO</t>
+  </si>
+  <si>
+    <t>scooby porch personal home</t>
+  </si>
+  <si>
+    <t>prova lider segue assim ainda estao prova lina lucas natalia pa estao gustavo jessi scooby vyn</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:52:28</t>
+  </si>
+  <si>
+    <t>RT @Dantinhas: E a prova do lider segue assim
+Ainda estao na prova: Lina, Lucas, Natalia e PA 
+Ja estao fora: Gustavo, Jessi, Scooby, Vyn...</t>
+  </si>
+  <si>
+    <t>leader test continues like this still test lina lucas natalia pa season gustavo jessi scooby vyn</t>
+  </si>
+  <si>
+    <t>querem comprar pa vip ligasse lider ficar imune kkkkkkkkk prefere ficar scooby xepa rua amargura aposto</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:52:16</t>
+  </si>
+  <si>
+    <t>Querem comprar o PA com VIP, como se ele ligasse, ele quer ser lider e ficar imune. kkkkkkkkk ele prefere ficar com o Scooby na xepa, na rua da amargura, aposto. #BBB22</t>
+  </si>
+  <si>
+    <t>want to buy pa vip ligasse leader stay immune kkkkkkkkk prefer to stay scooby xepa street bitterness I bet</t>
+  </si>
+  <si>
+    <t>arthur pa dg scooby voto comum indicado eli puxar lollipop nenhum lollipop paredao</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:52:06</t>
+  </si>
+  <si>
+    <t>Arthur, PA, DG e Scooby nao tem voto em comum. Se quem for indicado pelo Eli nao puxar ele ou um Lollipop, nenhum Lollipop vai para o paredao #BBB22</t>
+  </si>
+  <si>
+    <t>arthur pa dg scooby common vote nominated eli pull lollipop none lollipop paredao</t>
+  </si>
+  <si>
+    <t>natalia ganhar indica pa scooby lina indica dg certeza lucas indica eli pa indica jessi</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:52:04</t>
+  </si>
+  <si>
+    <t>Natalia se ganhar indica quem??
+PA ou Scooby?
+Lina indica o DG certeza
+Lucas indica Eli
+PA indica Jessi 
+#BBB22</t>
+  </si>
+  <si>
+    <t>natalia win indicates pa scooby lina indicates dg certainty lucas indicates eli pa indicates jessi</t>
+  </si>
+  <si>
+    <t>tamanho dessa onda scooby sensacional surf</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:51:57</t>
+  </si>
+  <si>
+    <t>RT @NazareAmarga: O tamanho dessa onda, o Scooby e sensacional no surf #BBB22 
+https://t.co/fx1U6w3NPD</t>
+  </si>
+  <si>
+    <t>size of this sensational scooby wave surfing</t>
+  </si>
+  <si>
+    <t>eslo acordou tomou banho conversando lais scooby nenhuma camera</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:51:50</t>
+  </si>
+  <si>
+    <t>RT @eslomarques: Eslo acordou, tomou banho e esta conversando com Lais e Scooby, nao tem nenhuma camera por la...  #BBB22</t>
+  </si>
+  <si>
+    <t>eslo woke up took a shower talking lais scooby no camera</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:51:02</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:50:48</t>
+  </si>
+  <si>
+    <t>aleatorio vascaino pedro scooby puxou hino botafogo durante prova lider</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:50:36</t>
+  </si>
+  <si>
+    <t>RT @MeuBotafogo: QUE ALEATORIO 
+O vascaino Pedro Scooby puxou o hino do Botafogo durante a prova do lider no #BBB22. https://t.co/9sHfh7d...</t>
+  </si>
+  <si>
+    <t>random vascaino pedro scooby pulled the botafogo anthem during the leader competition</t>
+  </si>
+  <si>
+    <t>gostaria grupo formasse scooby pa dg arthur ia amar</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:50:34</t>
+  </si>
+  <si>
+    <t>eu gostaria muito q esse grupo se formasse Scooby, PA, DG e Arthur ia amar #BBB22</t>
+  </si>
+  <si>
+    <t>would like group to form scooby pa dg arthur would love</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:50:33</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:50:18</t>
+  </si>
+  <si>
+    <t>natalia venceu arthur kkkkkkkkk prova lider natalia pa lucas linna arthur eliminado eslovenia eliminada</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:49:49</t>
+  </si>
+  <si>
+    <t>RT @BETALAB_060: @bbb Natalia venceu Arthur kkkkkkkkk
+Prova do Lider #BBB22:
+Natalia
+PA
+Lucas
+Linna
+Arthur ELIMINADO
+ Eslovenia ELIMINADA...</t>
+  </si>
+  <si>
+    <t>natalia won arthur kkkkkkkkk competition leader natalia pa lucas linna arthur eliminated slovenia eliminated</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:49:00</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:48:08</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:47:26</t>
   </si>
   <si>
     <t>povo surpreso batimentos scooby cara pega onda tamanho predio 10 andares casado</t>
   </si>
   <si>
+    <t>11/03/2022 23:46:54</t>
+  </si>
+  <si>
+    <t>RT @Vini_Pimentel88: O povo surpreso com os batimentos do Scooby. O cara pega onda do tamanho de um predio de 10 andares e foi casado com a...</t>
+  </si>
+  <si>
     <t>people surprised beats scooby guy catches wave size building 10 floors married</t>
   </si>
   <si>
-    <t>17h 20min prova arthur douglas eslo gustavo jessi lais lina lucas natalia paulo andre pedro scooby vyni</t>
-  </si>
-  <si>
-    <t>17h 20min test arthur douglas eslo gustavo jessi lais lina lucas natalia paulo andre pedro scooby vyni</t>
-  </si>
-  <si>
-    <t>prova lider segue assim ainda estao prova arthur lina lucas natalia pa desistiram gustavo jessi scoob</t>
-  </si>
-  <si>
-    <t>leading race is still going on race arthur lina lucas natalia pa gave up gustavo jessi scoob</t>
-  </si>
-  <si>
-    <t>1 natalia 2 eslo 3 paulo andre 4 vyni 5 scooby 6 douglas 7 jessi 8 gustavo 9 lucas 10 arth</t>
-  </si>
-  <si>
-    <t>aleatorio vascaino pedro scooby puxou hino botafogo durante prova lider</t>
-  </si>
-  <si>
-    <t>random vascaino pedro scooby pulled the botafogo anthem during the leader competition</t>
-  </si>
-  <si>
-    <t>sabe real primeira edicao caras escr@tos linna conforma vive tenta</t>
-  </si>
-  <si>
-    <t>know real first edition guys escr@tos linna conforma vive tries</t>
-  </si>
-  <si>
-    <t>psiquiatra responde pergunta outras duvidas tdah pedro scooby</t>
-  </si>
-  <si>
-    <t>psychiatrist answers question other doubts addah pedro scooby</t>
-  </si>
-  <si>
-    <t>scooby falou jato ajuda prova resistencia msm iria comecar conta cansaco prova resistencia facil</t>
-  </si>
-  <si>
-    <t>scooby spoke jet help test resistance msm would start account fatigue test easy resistance</t>
-  </si>
-  <si>
-    <t>1 natalia 2 eslo 3 paulo andre 4 vyni 5 scooby 6 douglas 7 jessi 8 gustavo 9 lucas 10 arthur 11 lais 12 lina 17h prova resistencia</t>
-  </si>
-  <si>
-    <t>1 natalia 2 eslo 3 paulo andre 4 vyni 5 scooby 6 douglas 7 jessi 8 gustavo 9 lucas 10 arthur 11 lais 12 lina 17h endurance test</t>
-  </si>
-  <si>
-    <t>dormir prova resistencia pode xixi liberado scooby admitiu edicao estar fazendo xixi assim seguiram vitoria</t>
-  </si>
-  <si>
-    <t>sleep proof stamina can pee released scooby admitted editing to be peeing so they followed victoria</t>
-  </si>
-  <si>
-    <t>prova resistencia 1 nat 2 eslo 3 pa 4 vyni 5 scooby 6 dg 7 jessi 8 gustavo 9 lucas 10 arthur 11 lais 12 lina</t>
-  </si>
-  <si>
-    <t>endurance test 1 nat 2 eslo 3 pa 4 vyni 5 scooby 6 dg 7 jessi 8 gustavo 9 lucas 10 arthur 11 lais 12 lina</t>
-  </si>
-  <si>
-    <t>tempo prova 17h00 seguem disputa douglas paulo andre natalia linna arthur lucas eliezer vetado pedro scooby vyni gustavo jessilane eslovenia lais</t>
-  </si>
-  <si>
-    <t>race time 17h00 follow dispute douglas paulo andre natalia linna arthur lucas eliezer vetoed pedro scooby vyni gustavo jessilane slovenia lais</t>
-  </si>
-  <si>
-    <t>scooby vetou pai acompanhar ultrassom bebe desumano pregnat</t>
-  </si>
-  <si>
-    <t>scooby vetoed father accompany ultrasound baby inhuman pregnat</t>
-  </si>
-  <si>
-    <t>momento prova resistencia segue assim participou prova eli saiu prova scooby vini gustavo jessi eslo lais dg continua prova arthur pa lucas nat lina</t>
-  </si>
-  <si>
-    <t>moment resistance test follows thus participated test eli left test scooby vini gustavo jessi eslo lais dg continues test arthur pa lucas nat lina</t>
-  </si>
-  <si>
-    <t>11 5h22 manha scooby assim cozinha</t>
-  </si>
-  <si>
-    <t>11 5:22 am scooby so cooks</t>
-  </si>
-  <si>
-    <t>disse scooby lais tenta entrar mente atleta</t>
-  </si>
-  <si>
-    <t>said scooby lais try to enter athlete mind</t>
-  </si>
-  <si>
-    <t>brothers especulam acontecera caso prova lider chegue 24 ho cozinha casa 22 pedro scooby eliez</t>
-  </si>
-  <si>
-    <t>brothers speculate it will happen if the leader test arrives 24 h kitchen house 22 pedro scooby eliez</t>
+    <t>pa scooby falou tentar entrar mente atleta</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:46:39</t>
+  </si>
+  <si>
+    <t>o PA e o scooby ja falou sobre tentar entrar na mente de um atleta  #BBB22</t>
+  </si>
+  <si>
+    <t>pa scooby spoke try to enter athlete mind</t>
+  </si>
+  <si>
+    <t>arthur saiu prova seguem prova lider lina lucas nat paulo andre eliminados arthur douglas eslo gustavo jessi lais scooby vyni</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:46:20</t>
+  </si>
+  <si>
+    <t>Arthur saiu da prova
+Seguem na prova do Lider 
+- Lina
+- Lucas
+- Nat
+- Paulo Andre
+Eliminados
+- Arthur 
+- Douglas 
+- Eslo 
+- Gustavo 
+- Jessi 
+- Lais 
+- Scooby 
+- Vyni 
+#BBB22 #ProvaDoLider 
+#ProvaDeResistencia 
+#AmericanasNoBBB https://t.co/DibFdKeBgN</t>
+  </si>
+  <si>
+    <t>arthur left race follow race leader lina lucas nat paulo andre eliminated arthur douglas eslo gustavo jessi lais scooby vyni</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:46:17</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:46:13</t>
+  </si>
+  <si>
+    <t>logica prova bosta scooby ganhou segundos beneficiou tres participantes prova 24h povo f den decidida palitinho beneficio merda</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:46:02</t>
+  </si>
+  <si>
+    <t>Logica do BBB: aquela prova bosta que o Scooby ganhou em segundos beneficiou tres participantes. Essa prova de 24h com o povo se f*den*o vai ser decidida no palitinho e so tem um beneficio. Que merda em #BBB22</t>
+  </si>
+  <si>
+    <t>logic proof shit scooby won seconds benefited three participants proof 24h people f den decided toothpick benefit shit</t>
+  </si>
+  <si>
+    <t>pa xepa 2 vips jade vip vip scooby vip dg</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:45:50</t>
+  </si>
+  <si>
+    <t>O PA ja foi pra xepa?
+Ele teve: 2 vips da jade, vip dele, vip do scooby e vip do dg #bbb22</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:45:32</t>
+  </si>
+  <si>
+    <t>50 palavras scooby fala 30 ceviche pegando ranco dessa comida</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:45:25</t>
+  </si>
+  <si>
+    <t>De 50 palavras que o scooby fala, 30 sao ceviche... pegando ranco dessa comida ja #bbb22</t>
+  </si>
+  <si>
+    <t>50 words scooby speaks 30 ceviche taking ranco of this food</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:45:24</t>
+  </si>
+  <si>
+    <t>prova lider resistencia natalia eslovenia paulo andre vyni scooby douglas jessi gustavo lucas arthur lais lina tempo prova 21h45min</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:45:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROVA DO LIDER - RESISTENCIA  
+* Natalia 
+* Eslovenia 
+* Paulo Andre 
+* Vyni 
+* Scooby 
+* Douglas 
+* Jessi 
+* Gustavo 
+* Lucas 
+* Arthur 
+* Lais 
+* Lina 
+TEMPO DE PROVA: 21h45min
+#BBB22 #RedeBBB #ProvaDoLider</t>
+  </si>
+  <si>
+    <t>race leader resistance natalia slovenia paulo andre vyni scooby douglas jessi gustavo lucas arthur lais lina race time 21:45</t>
+  </si>
+  <si>
+    <t>lais falsa dando parabens agr gramado scooby falou kakaka aguento escutar voz</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:45:00</t>
+  </si>
+  <si>
+    <t>Lais falsa dando parabens agr no gramado pq Scooby falou kakaka #BBB22  nao aguento mais escutar a voz</t>
+  </si>
+  <si>
+    <t>fake lais congratulating agr lawn scooby spoke kakaka I can stand hearing voice</t>
+  </si>
+  <si>
+    <t>adms douglas parecendo scooby jessi querendo fique felizona lideranca sabendo indicacao</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:44:19</t>
+  </si>
+  <si>
+    <t>Os adms do Douglas ta parecendo o Scooby com a Jessi, querendo que ela fique felizona com a lideranca mesmo sabendo que ela era a indicacao dele
+#BBB22 
+#ProvaDoLider 
+#ProvaDeResistencia https://t.co/LB0JKqQfdJ</t>
+  </si>
+  <si>
+    <t>adms douglas looking like scooby jessi wanting stay happy leadership knowing nomination</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:44:15</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:44:06</t>
+  </si>
+  <si>
+    <t>achei meio exagerado jessi ficou triste qd scooby venceu dessa forma entende sai rejeicao</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:43:53</t>
+  </si>
+  <si>
+    <t>Nossa achei meio exagerado, a Jessi ficou triste qd o Scooby venceu, mas nao foi dessa forma.
+Depois nao entende pq sai com rejeicao kkk #BBB22 https://t.co/bsaThzEOq8</t>
+  </si>
+  <si>
+    <t>I thought it was a bit exaggerated jessi was sad when scooby won that way you understand sai rejection</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:43:38</t>
+  </si>
+  <si>
+    <t>natalia gravida 4 melhores prova caralho superou arthur scooby lais venceu prova resistencia</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:43:23</t>
+  </si>
+  <si>
+    <t>A Natalia GRAVIDA e ta entre os 4 melhores da prova, caralho !!! 
+Ja superou Arthur, Scooby, Lais que ja venceu prova de resistencia. 
+#bbb22</t>
+  </si>
+  <si>
+    <t>natalia gravida 4th best fucking race overcame arthur scooby lais won resistance race</t>
+  </si>
+  <si>
+    <t>scooby todos dormiram suspenderam pes imagina plot twist 1o sair lider jogou limpo</t>
+  </si>
+  <si>
+    <t>11/03/2022 23:43:22</t>
+  </si>
+  <si>
+    <t>Seria do scooby pq todos depois dormiram, suspenderam os pes... imagina o plot twist!!! O 1o a sair e o lider, foi o que jogou mais limpo   #BBB22 #RedeBBB https://t.co/bcQZC6dcWE</t>
+  </si>
+  <si>
+    <t>scooby all slept suspended pes imagine plot twist 1st out leader played fair</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,12 +634,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,20 +941,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="186.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="159" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="155.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="156" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,327 +965,858 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44631</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44631</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44631</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="E31" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="C16" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44631</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
